--- a/Meter IPC Application Protocol_2017_07_11.xlsx
+++ b/Meter IPC Application Protocol_2017_07_11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="339">
   <si>
     <t>FunID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1022,10 +1022,6 @@
   </si>
   <si>
     <t>充电开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time Frame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1458,6 +1454,46 @@
   </si>
   <si>
     <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示器符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有没有指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lcd符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1980,7 +2016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2150,7 +2186,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2262,6 +2297,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2346,6 +2388,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2363,13 +2473,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>289994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1466850</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1223934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2401,13 +2511,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1504950</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1009650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2439,13 +2549,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>280436</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1504950</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>857316</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2477,13 +2587,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1514475</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>876300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2515,13 +2625,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>561975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1279050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1333500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2559,13 +2669,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1288117</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>828002</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2603,13 +2713,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>50595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1372433</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>857251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2647,13 +2757,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>528887</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>962024</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2694,13 +2804,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>313211</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1326170</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2747,13 +2857,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>475897</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2794,13 +2904,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>992104</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>409575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2838,13 +2948,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>990601</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>599722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2885,13 +2995,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>990601</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>504472</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2932,13 +3042,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>88051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1590470</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>742854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2970,13 +3080,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1590675</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>742950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3014,13 +3124,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3058,13 +3168,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1495426</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>828675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3111,13 +3221,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>638175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3155,13 +3265,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3199,13 +3309,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>685801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3246,13 +3356,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1314450</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>771399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3290,13 +3400,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>590550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3337,13 +3447,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1304925</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>714376</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3381,13 +3491,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3425,13 +3535,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>560614</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3465,13 +3575,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>532039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3505,13 +3615,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>589189</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3545,13 +3655,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>733147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3585,13 +3695,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>733147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3625,13 +3735,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>723622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3665,13 +3775,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1119788</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>651782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3711,13 +3821,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1117791</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>605517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3757,13 +3867,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1087154</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>601537</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3803,13 +3913,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1064078</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>578303</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3849,13 +3959,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>674916</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3895,13 +4005,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>743897</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3941,13 +4051,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1187450</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>797502</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3979,13 +4089,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1158875</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>781050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4017,13 +4127,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>760750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4061,13 +4171,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1314450</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>770275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4105,13 +4215,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1304925</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>789325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4149,13 +4259,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1152392</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>457158</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4193,13 +4303,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1123811</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>428583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4237,13 +4347,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4281,13 +4391,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1362637</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>990600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4319,13 +4429,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1362075</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4363,13 +4473,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1352549</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>942975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4407,13 +4517,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>885825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4451,13 +4561,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>619125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4495,13 +4605,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>619125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4538,15 +4648,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>352839</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>112229</xdr:rowOff>
+      <xdr:colOff>245165</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>752889</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>512279</xdr:rowOff>
+      <xdr:colOff>645215</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>503997</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4569,7 +4679,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4245665" y="2108338"/>
+          <a:off x="4137991" y="2605295"/>
           <a:ext cx="400050" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4583,14 +4693,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>90693</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>547893</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>539610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4613,7 +4723,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4626251" y="2086802"/>
+          <a:off x="4626251" y="2583758"/>
           <a:ext cx="457200" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4627,13 +4737,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>542925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4671,13 +4781,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4715,13 +4825,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4759,13 +4869,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>571500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4803,13 +4913,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>590550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4847,13 +4957,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>733425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1257300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4891,13 +5001,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>752475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4935,13 +5045,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>600075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4979,13 +5089,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>762000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5023,13 +5133,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>790575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>933523</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>19123</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5067,13 +5177,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>561975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5111,13 +5221,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>473885</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>46145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>997833</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>570093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5155,13 +5265,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>140804</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>38137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1572896</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>861392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5481,7 +5591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -5523,7 +5633,7 @@
       <c r="B14" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="69" t="s">
         <v>117</v>
       </c>
       <c r="D14" s="30" t="s">
@@ -5537,11 +5647,11 @@
       <c r="B15" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="70" t="s">
-        <v>241</v>
+      <c r="C15" s="69" t="s">
+        <v>240</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -5549,13 +5659,13 @@
         <v>42886</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="D16" s="54" t="s">
         <v>265</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5563,13 +5673,13 @@
         <v>42887</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>266</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -5577,13 +5687,13 @@
         <v>42891</v>
       </c>
       <c r="B18" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="D18" s="54" t="s">
         <v>272</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -5591,90 +5701,90 @@
         <v>42898</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="79" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="D19" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="92" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="71">
+      <c r="A20" s="70">
         <v>42899</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="D20" s="92" t="s">
         <v>283</v>
       </c>
-      <c r="D20" s="93" t="s">
-        <v>284</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="71">
+      <c r="A21" s="70">
         <v>42900</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="70" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="D21" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="D21" s="93" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="82">
+      <c r="A22" s="81">
         <v>42904</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="80" t="s">
         <v>295</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="D22" s="93" t="s">
         <v>296</v>
-      </c>
-      <c r="D22" s="94" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="29">
         <v>42905</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="86" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="86" t="s">
         <v>299</v>
       </c>
-      <c r="C23" s="87" t="s">
-        <v>300</v>
-      </c>
-      <c r="D23" s="95" t="s">
-        <v>306</v>
+      <c r="D23" s="94" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="82">
+      <c r="A24" s="81">
         <v>42912</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="80" t="s">
         <v>311</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="D24" s="93" t="s">
         <v>312</v>
       </c>
-      <c r="D24" s="94" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5710,13 +5820,13 @@
       <c r="C5" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="103"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="105"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="33" t="s">
@@ -5725,13 +5835,13 @@
       <c r="C6" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
@@ -5770,8 +5880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5790,8 +5900,8 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
-        <v>275</v>
+      <c r="B1" s="72" t="s">
+        <v>274</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -5816,17 +5926,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="110">
+      <c r="B2" s="112">
         <v>2</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="110" t="s">
-        <v>274</v>
+      <c r="D2" s="112" t="s">
+        <v>273</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
@@ -5845,10 +5955,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="105"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
@@ -5866,11 +5976,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="105"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="106" t="s">
+      <c r="A4" s="107"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="108" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="16">
@@ -5887,11 +5997,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="105"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="106"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="16">
         <v>15</v>
       </c>
@@ -5906,11 +6016,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="105"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="106" t="s">
+      <c r="A6" s="107"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="108" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="16">
@@ -5927,11 +6037,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="105"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="106"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="16">
         <v>7</v>
       </c>
@@ -5946,11 +6056,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="105"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="106" t="s">
+      <c r="A8" s="107"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="108" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="16">
@@ -5967,11 +6077,11 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="109"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="17">
         <v>7</v>
       </c>
@@ -5986,19 +6096,19 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="110">
+      <c r="B10" s="112">
         <v>2</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="E10" s="125" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="4">
@@ -6015,11 +6125,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="117"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="106"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="16">
         <v>14</v>
       </c>
@@ -6034,11 +6144,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="117"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="106" t="s">
+      <c r="A12" s="119"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="108" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="16">
@@ -6055,11 +6165,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="117"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="106"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="16">
         <v>14</v>
       </c>
@@ -6074,20 +6184,20 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="117"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="109" t="s">
-        <v>259</v>
-      </c>
-      <c r="F14" s="68">
+      <c r="A14" s="119"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="111" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="67">
         <v>2</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="67" t="s">
         <v>66</v>
       </c>
       <c r="I14" s="11" t="s">
@@ -6095,18 +6205,18 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="117"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="68">
+      <c r="A15" s="119"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="67">
         <v>14</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="67" t="s">
         <v>65</v>
       </c>
       <c r="I15" s="11" t="s">
@@ -6114,12 +6224,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="117"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="106" t="s">
-        <v>260</v>
+      <c r="A16" s="119"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="108" t="s">
+        <v>259</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
@@ -6135,11 +6245,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A17" s="117"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="106"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="108"/>
       <c r="F17" s="16">
         <v>7</v>
       </c>
@@ -6147,18 +6257,18 @@
         <v>13</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="122"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109" t="s">
+      <c r="A18" s="124"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="111" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="16">
@@ -6175,11 +6285,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A19" s="122"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
       <c r="F19" s="17">
         <v>2</v>
       </c>
@@ -6194,11 +6304,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="176.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="118"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
+      <c r="A20" s="120"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="5">
         <v>5</v>
       </c>
@@ -6209,24 +6319,24 @@
         <v>30</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="110">
+      <c r="B21" s="112">
         <v>2</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="110" t="s">
+      <c r="D21" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="111" t="s">
-        <v>262</v>
+      <c r="E21" s="113" t="s">
+        <v>261</v>
       </c>
       <c r="F21" s="18">
         <v>2</v>
@@ -6242,11 +6352,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="105"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="108"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="110"/>
       <c r="F22" s="16">
         <v>22</v>
       </c>
@@ -6261,12 +6371,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="105"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="109" t="s">
-        <v>263</v>
+      <c r="A23" s="107"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="111" t="s">
+        <v>262</v>
       </c>
       <c r="F23" s="16">
         <v>2</v>
@@ -6282,11 +6392,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="105"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="108"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="110"/>
       <c r="F24" s="16">
         <v>22</v>
       </c>
@@ -6301,12 +6411,12 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="105"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="109" t="s">
-        <v>259</v>
+      <c r="A25" s="107"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="111" t="s">
+        <v>258</v>
       </c>
       <c r="F25" s="16">
         <v>2</v>
@@ -6322,11 +6432,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="105"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="40">
         <v>22</v>
       </c>
@@ -6341,28 +6451,28 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="110">
+      <c r="B27" s="112">
         <v>1</v>
       </c>
-      <c r="C27" s="119" t="s">
+      <c r="C27" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="124" t="s">
+      <c r="D27" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="123" t="s">
+      <c r="E27" s="125" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="61">
         <v>8</v>
       </c>
-      <c r="G27" s="62" t="s">
+      <c r="G27" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="62" t="s">
+      <c r="H27" s="61" t="s">
         <v>134</v>
       </c>
       <c r="I27" s="45" t="s">
@@ -6370,146 +6480,146 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="117"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="63">
+      <c r="A28" s="119"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="62">
         <v>8</v>
       </c>
-      <c r="G28" s="63" t="s">
+      <c r="G28" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="63" t="s">
+      <c r="H28" s="62" t="s">
         <v>135</v>
       </c>
       <c r="I28" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="117"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="106" t="s">
+      <c r="A29" s="119"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="62">
         <v>8</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="63" t="s">
+      <c r="H29" s="62" t="s">
         <v>134</v>
       </c>
       <c r="I29" s="46"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="117"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="63">
+      <c r="A30" s="119"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="62">
         <v>8</v>
       </c>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="63" t="s">
+      <c r="H30" s="62" t="s">
         <v>135</v>
       </c>
       <c r="I30" s="47"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="117"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="106" t="s">
+      <c r="A31" s="119"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="62">
         <v>8</v>
       </c>
-      <c r="G31" s="63" t="s">
+      <c r="G31" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="63" t="s">
+      <c r="H31" s="62" t="s">
         <v>134</v>
       </c>
       <c r="I31" s="46"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="117"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="63">
+      <c r="A32" s="119"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="62">
         <v>8</v>
       </c>
-      <c r="G32" s="63" t="s">
+      <c r="G32" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="62" t="s">
         <v>135</v>
       </c>
       <c r="I32" s="47"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="117"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="106" t="s">
+      <c r="A33" s="119"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="63">
+      <c r="F33" s="62">
         <v>8</v>
       </c>
-      <c r="G33" s="63" t="s">
+      <c r="G33" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="63" t="s">
+      <c r="H33" s="62" t="s">
         <v>134</v>
       </c>
       <c r="I33" s="46"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="118"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="64">
+      <c r="A34" s="120"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="63">
         <v>8</v>
       </c>
-      <c r="G34" s="64" t="s">
+      <c r="G34" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="64" t="s">
+      <c r="H34" s="63" t="s">
         <v>135</v>
       </c>
       <c r="I34" s="48"/>
     </row>
     <row r="35" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="110">
+      <c r="B35" s="112">
         <v>1</v>
       </c>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="113" t="s">
+      <c r="D35" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="108" t="s">
+      <c r="E35" s="110" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="38">
@@ -6526,11 +6636,11 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="105"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="106"/>
+      <c r="A36" s="107"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="108"/>
       <c r="F36" s="37">
         <v>8</v>
       </c>
@@ -6545,11 +6655,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="105"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="106" t="s">
+      <c r="A37" s="107"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="108" t="s">
         <v>75</v>
       </c>
       <c r="F37" s="37">
@@ -6564,11 +6674,11 @@
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="105"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="106"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="108"/>
       <c r="F38" s="37">
         <v>8</v>
       </c>
@@ -6581,11 +6691,11 @@
       <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="105"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="106" t="s">
+      <c r="A39" s="107"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="108" t="s">
         <v>76</v>
       </c>
       <c r="F39" s="37">
@@ -6600,11 +6710,11 @@
       <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="105"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="106"/>
+      <c r="A40" s="107"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="108"/>
       <c r="F40" s="37">
         <v>8</v>
       </c>
@@ -6617,11 +6727,11 @@
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="105"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="106" t="s">
+      <c r="A41" s="107"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="108" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="37">
@@ -6636,11 +6746,11 @@
       <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="105"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="109"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="40">
         <v>8</v>
       </c>
@@ -6653,70 +6763,70 @@
       <c r="I42" s="44"/>
     </row>
     <row r="43" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="114" t="s">
-        <v>248</v>
-      </c>
-      <c r="B43" s="110">
+      <c r="A43" s="116" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="112">
         <v>2</v>
       </c>
-      <c r="C43" s="110" t="s">
+      <c r="C43" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="110" t="s">
+      <c r="D43" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="74" t="s">
+      <c r="E43" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="74">
+      <c r="F43" s="73">
         <v>1</v>
       </c>
-      <c r="G43" s="74" t="s">
+      <c r="G43" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="74" t="s">
+      <c r="H43" s="73" t="s">
+        <v>290</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="107"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="76">
+        <v>1</v>
+      </c>
+      <c r="G44" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="74" t="s">
         <v>291</v>
       </c>
-      <c r="I43" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A44" s="105"/>
-      <c r="B44" s="111"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" s="77">
-        <v>1</v>
-      </c>
-      <c r="G44" s="77" t="s">
+      <c r="I44" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A45" s="107"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="74">
+        <v>3</v>
+      </c>
+      <c r="G45" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A45" s="105"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="75">
-        <v>3</v>
-      </c>
-      <c r="G45" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="75" t="s">
+      <c r="H45" s="74" t="s">
         <v>22</v>
       </c>
       <c r="I45" s="11" t="s">
@@ -6724,20 +6834,20 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A46" s="105"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="75" t="s">
+      <c r="A46" s="107"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="75">
+      <c r="F46" s="74">
         <v>1</v>
       </c>
-      <c r="G46" s="75" t="s">
+      <c r="G46" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="75" t="s">
+      <c r="H46" s="74" t="s">
         <v>23</v>
       </c>
       <c r="I46" s="11" t="s">
@@ -6745,20 +6855,20 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="105"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="75" t="s">
+      <c r="A47" s="107"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="78">
+      <c r="F47" s="77">
         <v>1</v>
       </c>
-      <c r="G47" s="78" t="s">
+      <c r="G47" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="78" t="s">
+      <c r="H47" s="77" t="s">
         <v>79</v>
       </c>
       <c r="I47" s="24" t="s">
@@ -6766,39 +6876,39 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="105"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="75" t="s">
+      <c r="A48" s="107"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="F48" s="77">
+        <v>1</v>
+      </c>
+      <c r="G48" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="117"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="75" t="s">
         <v>289</v>
       </c>
-      <c r="F48" s="78">
-        <v>1</v>
-      </c>
-      <c r="G48" s="78" t="s">
+      <c r="F49" s="75">
+        <v>8</v>
+      </c>
+      <c r="G49" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="24"/>
-    </row>
-    <row r="49" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="115"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="112"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="76" t="s">
-        <v>290</v>
-      </c>
-      <c r="F49" s="76">
-        <v>8</v>
-      </c>
-      <c r="G49" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="76" t="s">
+      <c r="H49" s="75" t="s">
         <v>15</v>
       </c>
       <c r="I49" s="6" t="s">
@@ -6806,39 +6916,39 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A50" s="105" t="s">
-        <v>249</v>
-      </c>
-      <c r="B50" s="111">
+      <c r="A50" s="107" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" s="113">
         <v>2</v>
       </c>
-      <c r="C50" s="111" t="s">
+      <c r="C50" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="111" t="s">
+      <c r="D50" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="77" t="s">
+      <c r="E50" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="77">
+      <c r="F50" s="76">
         <v>3</v>
       </c>
-      <c r="G50" s="77" t="s">
+      <c r="G50" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="77" t="s">
+      <c r="H50" s="76" t="s">
         <v>32</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A51" s="105"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
+      <c r="A51" s="107"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
       <c r="E51" s="56" t="s">
         <v>7</v>
       </c>
@@ -6856,12 +6966,12 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="108" x14ac:dyDescent="0.15">
-      <c r="A52" s="105"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="111"/>
+      <c r="A52" s="107"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
       <c r="E52" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F52" s="56">
         <v>3</v>
@@ -6877,12 +6987,12 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A53" s="105"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="111"/>
+      <c r="A53" s="107"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
       <c r="E53" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F53" s="56">
         <v>8</v>
@@ -6898,12 +7008,12 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="115"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
+      <c r="A54" s="117"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
       <c r="E54" s="57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F54" s="57">
         <v>8</v>
@@ -6919,17 +7029,17 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A55" s="105" t="s">
-        <v>250</v>
-      </c>
-      <c r="B55" s="110">
+      <c r="A55" s="107" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" s="112">
         <v>2</v>
       </c>
-      <c r="C55" s="111" t="s">
-        <v>242</v>
-      </c>
-      <c r="D55" s="111"/>
-      <c r="E55" s="110" t="s">
+      <c r="C55" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="D55" s="113"/>
+      <c r="E55" s="112" t="s">
         <v>5</v>
       </c>
       <c r="F55" s="55">
@@ -6941,16 +7051,16 @@
       <c r="H55" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="I55" s="67" t="s">
+      <c r="I55" s="66" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A56" s="105"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="111"/>
+      <c r="A56" s="107"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
       <c r="F56" s="56">
         <v>2</v>
       </c>
@@ -6965,11 +7075,11 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="105"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="111"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="111"/>
+      <c r="A57" s="107"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
       <c r="F57" s="56">
         <v>4</v>
       </c>
@@ -6984,12 +7094,12 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="105"/>
-      <c r="B58" s="111"/>
-      <c r="C58" s="111"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="99" t="s">
-        <v>308</v>
+      <c r="A58" s="107"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="98" t="s">
+        <v>307</v>
       </c>
       <c r="F58" s="56">
         <v>8</v>
@@ -6998,19 +7108,19 @@
         <v>13</v>
       </c>
       <c r="H58" s="49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="105"/>
-      <c r="B59" s="111"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="99" t="s">
-        <v>309</v>
+      <c r="A59" s="107"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="98" t="s">
+        <v>308</v>
       </c>
       <c r="F59" s="56">
         <v>16</v>
@@ -7019,19 +7129,19 @@
         <v>13</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I59" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="105"/>
-      <c r="B60" s="111"/>
-      <c r="C60" s="111"/>
-      <c r="D60" s="111"/>
-      <c r="E60" s="99" t="s">
-        <v>244</v>
+      <c r="A60" s="107"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="98" t="s">
+        <v>243</v>
       </c>
       <c r="F60" s="16">
         <v>16</v>
@@ -7040,47 +7150,47 @@
         <v>13</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I60" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="105"/>
-      <c r="B61" s="111"/>
-      <c r="C61" s="111"/>
-      <c r="D61" s="111"/>
-      <c r="E61" s="100"/>
+      <c r="A61" s="107"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="113"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="99"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="91"/>
+      <c r="I61" s="89"/>
+      <c r="J61" s="90"/>
     </row>
     <row r="62" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A62" s="116" t="s">
-        <v>251</v>
-      </c>
-      <c r="B62" s="110">
+      <c r="A62" s="118" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="112">
         <v>1</v>
       </c>
-      <c r="C62" s="123" t="s">
+      <c r="C62" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="110" t="s">
+      <c r="D62" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="83" t="s">
+      <c r="E62" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="F62" s="83">
+      <c r="F62" s="82">
         <v>48</v>
       </c>
-      <c r="G62" s="83" t="s">
+      <c r="G62" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="83" t="s">
+      <c r="H62" s="82" t="s">
         <v>27</v>
       </c>
       <c r="I62" s="10" t="s">
@@ -7088,60 +7198,60 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A63" s="105"/>
-      <c r="B63" s="111"/>
-      <c r="C63" s="111"/>
-      <c r="D63" s="111"/>
-      <c r="E63" s="84" t="s">
+      <c r="A63" s="107"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="F63" s="84">
+      <c r="F63" s="83">
         <v>1</v>
       </c>
-      <c r="G63" s="84" t="s">
+      <c r="G63" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H63" s="84" t="s">
+      <c r="H63" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="I63" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="I63" s="11" t="s">
-        <v>303</v>
-      </c>
     </row>
     <row r="64" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="118"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="112"/>
-      <c r="E64" s="85" t="s">
+      <c r="A64" s="120"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="F64" s="85">
+      <c r="F64" s="84">
         <v>7</v>
       </c>
-      <c r="G64" s="85" t="s">
+      <c r="G64" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="H64" s="85" t="s">
+      <c r="H64" s="84" t="s">
         <v>81</v>
       </c>
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A65" s="126" t="s">
-        <v>252</v>
-      </c>
-      <c r="B65" s="111">
+      <c r="A65" s="128" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" s="113">
         <v>1</v>
       </c>
-      <c r="C65" s="108" t="s">
+      <c r="C65" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="111" t="s">
+      <c r="D65" s="113" t="s">
         <v>92</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F65" s="18">
         <v>1</v>
@@ -7157,12 +7267,12 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A66" s="105"/>
-      <c r="B66" s="111"/>
-      <c r="C66" s="111"/>
-      <c r="D66" s="111"/>
+      <c r="A66" s="107"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="113"/>
+      <c r="D66" s="113"/>
       <c r="E66" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F66" s="19">
         <v>2</v>
@@ -7178,10 +7288,10 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="122"/>
-      <c r="B67" s="112"/>
-      <c r="C67" s="109"/>
-      <c r="D67" s="111"/>
+      <c r="A67" s="124"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="111"/>
+      <c r="D67" s="113"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
@@ -7189,16 +7299,16 @@
       <c r="I67" s="25"/>
     </row>
     <row r="68" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="116" t="s">
-        <v>253</v>
-      </c>
-      <c r="B68" s="110">
+      <c r="A68" s="118" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" s="112">
         <v>1</v>
       </c>
-      <c r="C68" s="123" t="s">
+      <c r="C68" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="D68" s="123" t="s">
+      <c r="D68" s="125" t="s">
         <v>92</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -7211,19 +7321,19 @@
         <v>13</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="117"/>
-      <c r="B69" s="111"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="106"/>
+      <c r="A69" s="119"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="108"/>
       <c r="E69" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F69" s="16">
         <v>1</v>
@@ -7239,12 +7349,12 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="117"/>
-      <c r="B70" s="111"/>
-      <c r="C70" s="106"/>
-      <c r="D70" s="106"/>
+      <c r="A70" s="119"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="108"/>
+      <c r="D70" s="108"/>
       <c r="E70" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F70" s="16">
         <v>1</v>
@@ -7260,12 +7370,12 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A71" s="117"/>
-      <c r="B71" s="111"/>
-      <c r="C71" s="106"/>
-      <c r="D71" s="106"/>
+      <c r="A71" s="119"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="108"/>
       <c r="E71" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F71" s="16">
         <v>1</v>
@@ -7281,12 +7391,12 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="118"/>
-      <c r="B72" s="112"/>
-      <c r="C72" s="107"/>
-      <c r="D72" s="107"/>
+      <c r="A72" s="120"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="109"/>
       <c r="E72" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F72" s="5">
         <v>2</v>
@@ -7303,8 +7413,8 @@
       <c r="A73" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="73" t="s">
-        <v>275</v>
+      <c r="B73" s="72" t="s">
+        <v>274</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>1</v>
@@ -7313,7 +7423,7 @@
         <v>93</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>6</v>
@@ -7329,49 +7439,49 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="114" t="s">
-        <v>254</v>
-      </c>
-      <c r="B74" s="110">
+      <c r="A74" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="B74" s="112">
         <v>1</v>
       </c>
-      <c r="C74" s="124" t="s">
+      <c r="C74" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="D74" s="110" t="s">
+      <c r="D74" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="E74" s="86">
+      <c r="E74" s="85">
         <v>1</v>
       </c>
-      <c r="F74" s="86">
+      <c r="F74" s="85">
         <v>8</v>
       </c>
-      <c r="G74" s="86" t="s">
+      <c r="G74" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="89" t="s">
+      <c r="H74" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="I74" s="65" t="s">
+      <c r="I74" s="64" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="105"/>
-      <c r="B75" s="111"/>
-      <c r="C75" s="113"/>
-      <c r="D75" s="111"/>
-      <c r="E75" s="87">
+      <c r="A75" s="107"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="115"/>
+      <c r="D75" s="113"/>
+      <c r="E75" s="86">
         <v>2</v>
       </c>
-      <c r="F75" s="87">
+      <c r="F75" s="86">
         <v>16</v>
       </c>
-      <c r="G75" s="87" t="s">
+      <c r="G75" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="87" t="s">
+      <c r="H75" s="86" t="s">
         <v>98</v>
       </c>
       <c r="I75" s="21" t="s">
@@ -7379,51 +7489,51 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="105"/>
-      <c r="B76" s="111"/>
-      <c r="C76" s="113"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="96">
+      <c r="A76" s="107"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="113"/>
+      <c r="E76" s="95">
         <v>3</v>
       </c>
-      <c r="F76" s="96">
+      <c r="F76" s="95">
         <v>8</v>
       </c>
-      <c r="G76" s="96" t="s">
+      <c r="G76" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="96" t="s">
+      <c r="H76" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="I76" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="I76" s="21" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="77" spans="1:9" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="115"/>
-      <c r="B77" s="112"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="112"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="97"/>
-      <c r="G77" s="97"/>
-      <c r="H77" s="97"/>
-      <c r="I77" s="66"/>
+      <c r="A77" s="117"/>
+      <c r="B77" s="114"/>
+      <c r="C77" s="127"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="96"/>
+      <c r="I77" s="65"/>
     </row>
     <row r="78" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="88"/>
-      <c r="B78" s="88"/>
+      <c r="A78" s="87"/>
+      <c r="B78" s="87"/>
       <c r="C78" s="58"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="98"/>
+      <c r="D78" s="87"/>
+      <c r="E78" s="87"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="87"/>
+      <c r="H78" s="87"/>
+      <c r="I78" s="97"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
-      <c r="B79" s="72"/>
+      <c r="B79" s="71"/>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
@@ -7516,10 +7626,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7540,7 +7651,7 @@
         <v>141</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C1" s="53" t="s">
         <v>201</v>
@@ -7558,43 +7669,47 @@
         <v>213</v>
       </c>
       <c r="H1" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="53" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+    </row>
+    <row r="2" spans="1:9" s="102" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="100" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" s="100" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>334</v>
+      </c>
+      <c r="H2" s="100" t="s">
+        <v>338</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B3" s="43">
         <v>1</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="50"/>
-    </row>
-    <row r="3" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="43">
-        <v>2</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>143</v>
@@ -7610,16 +7725,16 @@
         <v>21</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I3" s="50"/>
     </row>
-    <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
-        <v>316</v>
+    <row r="4" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="43" t="s">
+        <v>144</v>
       </c>
       <c r="B4" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>143</v>
@@ -7635,16 +7750,16 @@
         <v>21</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I4" s="50"/>
     </row>
-    <row r="5" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="B5" s="43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>143</v>
@@ -7660,66 +7775,66 @@
         <v>21</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I5" s="50"/>
     </row>
-    <row r="6" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43" t="s">
-        <v>329</v>
+        <v>21</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>329</v>
+        <v>21</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I6" s="50"/>
     </row>
-    <row r="7" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43" t="s">
-        <v>21</v>
+        <v>328</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>21</v>
+        <v>328</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I7" s="50"/>
     </row>
-    <row r="8" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="43" t="s">
         <v>143</v>
@@ -7732,19 +7847,19 @@
         <v>21</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I8" s="50"/>
     </row>
-    <row r="9" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42" t="s">
-        <v>317</v>
+        <v>149</v>
       </c>
       <c r="B9" s="43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>143</v>
@@ -7757,44 +7872,44 @@
         <v>21</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I9" s="50"/>
     </row>
-    <row r="10" spans="1:9" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" s="43">
+        <v>8</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I10" s="50"/>
+    </row>
+    <row r="11" spans="1:9" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B11" s="43">
         <v>9</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="I10" s="50"/>
-    </row>
-    <row r="11" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="43">
-        <v>10</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>13</v>
@@ -7804,22 +7919,22 @@
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="42" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>238</v>
       </c>
       <c r="I11" s="50"/>
     </row>
-    <row r="12" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>13</v>
@@ -7829,22 +7944,22 @@
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I12" s="50"/>
     </row>
-    <row r="13" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>13</v>
@@ -7854,150 +7969,150 @@
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G13" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="43">
+        <v>12</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="G14" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="H13" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="I13" s="50"/>
-    </row>
-    <row r="14" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="42" t="s">
+      <c r="H14" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B15" s="43">
         <v>13</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="54" t="s">
-        <v>320</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="43">
-        <v>14</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
-      <c r="F15" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>218</v>
+      <c r="F15" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>318</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="I15" s="50"/>
-    </row>
-    <row r="16" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D16" s="43"/>
-      <c r="E16" s="43" t="s">
-        <v>255</v>
-      </c>
+      <c r="E16" s="43"/>
       <c r="F16" s="42" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="I16" s="50"/>
     </row>
-    <row r="17" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
+      <c r="E17" s="43" t="s">
+        <v>254</v>
+      </c>
       <c r="F17" s="42" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I17" s="50"/>
     </row>
-    <row r="18" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="43"/>
-      <c r="E18" s="43" t="s">
-        <v>255</v>
-      </c>
+      <c r="E18" s="43"/>
       <c r="F18" s="42" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="H18" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I18" s="50"/>
     </row>
-    <row r="19" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B19" s="43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>21</v>
@@ -8006,39 +8121,41 @@
         <v>21</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I19" s="50"/>
     </row>
-    <row r="20" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B20" s="43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="E20" s="43" t="s">
+        <v>254</v>
+      </c>
       <c r="F20" s="42" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="H20" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I20" s="50"/>
     </row>
-    <row r="21" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B21" s="43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>143</v>
@@ -8046,22 +8163,22 @@
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="42" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="I21" s="50"/>
     </row>
-    <row r="22" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B22" s="43">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>143</v>
@@ -8069,22 +8186,22 @@
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
       <c r="F22" s="42" t="s">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="I22" s="50"/>
     </row>
-    <row r="23" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" s="43">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>143</v>
@@ -8092,101 +8209,101 @@
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="42" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>327</v>
+        <v>221</v>
       </c>
       <c r="H23" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I23" s="50"/>
     </row>
-    <row r="24" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B24" s="43">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D24" s="43"/>
-      <c r="E24" s="43" t="s">
-        <v>21</v>
-      </c>
+      <c r="E24" s="43"/>
       <c r="F24" s="42" t="s">
-        <v>21</v>
+        <v>325</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>21</v>
+        <v>326</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I24" s="50"/>
     </row>
-    <row r="25" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="43">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
+      <c r="E25" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="F25" s="42" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="I25" s="50"/>
     </row>
-    <row r="26" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="43">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D26" s="43"/>
-      <c r="E26" s="43" t="s">
-        <v>21</v>
-      </c>
+      <c r="E26" s="43"/>
       <c r="F26" s="42" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="I26" s="50"/>
     </row>
-    <row r="27" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="43">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
+      <c r="E27" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="F27" s="42" t="s">
         <v>21</v>
       </c>
@@ -8194,16 +8311,16 @@
         <v>21</v>
       </c>
       <c r="H27" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I27" s="50"/>
     </row>
-    <row r="28" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="43">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="43" t="s">
         <v>143</v>
@@ -8211,70 +8328,70 @@
       <c r="D28" s="43"/>
       <c r="E28" s="43"/>
       <c r="F28" s="42" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="H28" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I28" s="50"/>
     </row>
-    <row r="29" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="43">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D29" s="43"/>
-      <c r="E29" s="43" t="s">
-        <v>21</v>
-      </c>
+      <c r="E29" s="43"/>
       <c r="F29" s="42" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I29" s="50"/>
     </row>
-    <row r="30" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="43">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
+      <c r="E30" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="F30" s="42" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="H30" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I30" s="50"/>
     </row>
-    <row r="31" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="43">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="43" t="s">
         <v>143</v>
@@ -8282,22 +8399,22 @@
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
       <c r="F31" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H31" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I31" s="50"/>
     </row>
-    <row r="32" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="43">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>143</v>
@@ -8311,41 +8428,39 @@
         <v>224</v>
       </c>
       <c r="H32" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I32" s="50"/>
     </row>
     <row r="33" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="B33" s="43">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>21</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="42" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="H33" s="49" t="s">
         <v>237</v>
       </c>
       <c r="I33" s="50"/>
     </row>
-    <row r="34" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="B34" s="43">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>13</v>
@@ -8365,12 +8480,12 @@
       </c>
       <c r="I34" s="50"/>
     </row>
-    <row r="35" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" s="43">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="43" t="s">
         <v>13</v>
@@ -8386,16 +8501,16 @@
         <v>21</v>
       </c>
       <c r="H35" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I35" s="50"/>
     </row>
-    <row r="36" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B36" s="43">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="43" t="s">
         <v>13</v>
@@ -8411,16 +8526,16 @@
         <v>21</v>
       </c>
       <c r="H36" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I36" s="50"/>
     </row>
-    <row r="37" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B37" s="43">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="43" t="s">
         <v>13</v>
@@ -8436,16 +8551,16 @@
         <v>21</v>
       </c>
       <c r="H37" s="49" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I37" s="50"/>
     </row>
-    <row r="38" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B38" s="43">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>13</v>
@@ -8461,16 +8576,16 @@
         <v>21</v>
       </c>
       <c r="H38" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I38" s="50"/>
     </row>
-    <row r="39" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B39" s="43">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="43" t="s">
         <v>13</v>
@@ -8480,22 +8595,22 @@
       </c>
       <c r="E39" s="43"/>
       <c r="F39" s="42" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="H39" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I39" s="50"/>
     </row>
-    <row r="40" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B40" s="43">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="43" t="s">
         <v>13</v>
@@ -8505,22 +8620,22 @@
       </c>
       <c r="E40" s="43"/>
       <c r="F40" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H40" s="49" t="s">
         <v>236</v>
       </c>
       <c r="I40" s="50"/>
     </row>
-    <row r="41" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B41" s="43">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="43" t="s">
         <v>13</v>
@@ -8530,22 +8645,22 @@
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I41" s="50"/>
     </row>
     <row r="42" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B42" s="43">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>13</v>
@@ -8555,22 +8670,22 @@
       </c>
       <c r="E42" s="43"/>
       <c r="F42" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H42" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I42" s="50"/>
     </row>
-    <row r="43" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B43" s="43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="43" t="s">
         <v>13</v>
@@ -8580,47 +8695,47 @@
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="H43" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="I43" s="50"/>
+    </row>
+    <row r="44" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="43">
+        <v>42</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="43"/>
+      <c r="F44" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="G43" s="42" t="s">
+      <c r="G44" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="H43" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="I43" s="50"/>
-    </row>
-    <row r="44" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="42" t="s">
+      <c r="H44" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="I44" s="50"/>
+    </row>
+    <row r="45" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B45" s="43">
         <v>43</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="I44" s="50"/>
-    </row>
-    <row r="45" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="B45" s="43">
-        <v>44</v>
       </c>
       <c r="C45" s="43" t="s">
         <v>143</v>
@@ -8636,19 +8751,19 @@
         <v>21</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I45" s="50"/>
     </row>
-    <row r="46" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="42" t="s">
-        <v>183</v>
+        <v>284</v>
       </c>
       <c r="B46" s="43">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="D46" s="43"/>
       <c r="E46" s="43" t="s">
@@ -8661,16 +8776,16 @@
         <v>21</v>
       </c>
       <c r="H46" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I46" s="50"/>
     </row>
-    <row r="47" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B47" s="43">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>13</v>
@@ -8686,16 +8801,16 @@
         <v>21</v>
       </c>
       <c r="H47" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I47" s="50"/>
     </row>
-    <row r="48" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B48" s="43">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="43" t="s">
         <v>13</v>
@@ -8711,41 +8826,41 @@
         <v>21</v>
       </c>
       <c r="H48" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I48" s="50"/>
     </row>
-    <row r="49" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B49" s="43">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="43"/>
+      <c r="E49" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="43"/>
       <c r="F49" s="42" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="H49" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I49" s="50"/>
     </row>
-    <row r="50" spans="1:13" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B50" s="43">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>13</v>
@@ -8755,22 +8870,22 @@
       </c>
       <c r="E50" s="43"/>
       <c r="F50" s="42" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="H50" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I50" s="50"/>
     </row>
-    <row r="51" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B51" s="43">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="43" t="s">
         <v>13</v>
@@ -8780,22 +8895,22 @@
       </c>
       <c r="E51" s="43"/>
       <c r="F51" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H51" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I51" s="50"/>
     </row>
-    <row r="52" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B52" s="43">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="43" t="s">
         <v>13</v>
@@ -8805,22 +8920,22 @@
       </c>
       <c r="E52" s="43"/>
       <c r="F52" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G52" s="42" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H52" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I52" s="50"/>
     </row>
-    <row r="53" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="43" t="s">
-        <v>190</v>
+    <row r="53" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="42" t="s">
+        <v>189</v>
       </c>
       <c r="B53" s="43">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="43" t="s">
         <v>13</v>
@@ -8830,28 +8945,42 @@
       </c>
       <c r="E53" s="43"/>
       <c r="F53" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="H53" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="I53" s="50"/>
+    </row>
+    <row r="54" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="43">
+        <v>52</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="43"/>
+      <c r="F54" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G54" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="H53" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="I53" s="50"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="49"/>
+      <c r="H54" s="49" t="s">
+        <v>237</v>
+      </c>
       <c r="I54" s="50"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="43"/>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
@@ -8862,7 +8991,7 @@
       <c r="H55" s="49"/>
       <c r="I55" s="50"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
       <c r="C56" s="43"/>
@@ -8873,18 +9002,18 @@
       <c r="H56" s="49"/>
       <c r="I56" s="50"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A57" s="49"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
       <c r="H57" s="49"/>
       <c r="I57" s="50"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="49"/>
       <c r="B58" s="49"/>
       <c r="C58" s="49"/>
@@ -8895,22 +9024,18 @@
       <c r="H58" s="49"/>
       <c r="I58" s="50"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="49"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="50"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="59"/>
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
@@ -8920,12 +9045,8 @@
       <c r="G60" s="60"/>
       <c r="H60" s="59"/>
       <c r="I60" s="60"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="61"/>
-      <c r="L60" s="61"/>
-      <c r="M60" s="61"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="59"/>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
@@ -8935,12 +9056,8 @@
       <c r="G61" s="60"/>
       <c r="H61" s="59"/>
       <c r="I61" s="60"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="59"/>
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
@@ -8950,12 +9067,8 @@
       <c r="G62" s="60"/>
       <c r="H62" s="59"/>
       <c r="I62" s="60"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="61"/>
-      <c r="L62" s="61"/>
-      <c r="M62" s="61"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
@@ -8965,12 +9078,8 @@
       <c r="G63" s="60"/>
       <c r="H63" s="59"/>
       <c r="I63" s="60"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
-      <c r="L63" s="61"/>
-      <c r="M63" s="61"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="59"/>
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
@@ -8980,12 +9089,8 @@
       <c r="G64" s="60"/>
       <c r="H64" s="59"/>
       <c r="I64" s="60"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="61"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -8995,12 +9100,8 @@
       <c r="G65" s="60"/>
       <c r="H65" s="59"/>
       <c r="I65" s="60"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="59"/>
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
@@ -9010,12 +9111,8 @@
       <c r="G66" s="60"/>
       <c r="H66" s="59"/>
       <c r="I66" s="60"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="59"/>
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
@@ -9025,12 +9122,8 @@
       <c r="G67" s="60"/>
       <c r="H67" s="59"/>
       <c r="I67" s="60"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="61"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="61"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="59"/>
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
@@ -9040,12 +9133,8 @@
       <c r="G68" s="60"/>
       <c r="H68" s="59"/>
       <c r="I68" s="60"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="61"/>
-      <c r="L68" s="61"/>
-      <c r="M68" s="61"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="59"/>
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
@@ -9055,12 +9144,8 @@
       <c r="G69" s="60"/>
       <c r="H69" s="59"/>
       <c r="I69" s="60"/>
-      <c r="J69" s="61"/>
-      <c r="K69" s="61"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="61"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="59"/>
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
@@ -9070,12 +9155,8 @@
       <c r="G70" s="60"/>
       <c r="H70" s="59"/>
       <c r="I70" s="60"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="59"/>
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
@@ -9085,12 +9166,8 @@
       <c r="G71" s="60"/>
       <c r="H71" s="59"/>
       <c r="I71" s="60"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="59"/>
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
@@ -9100,12 +9177,8 @@
       <c r="G72" s="60"/>
       <c r="H72" s="59"/>
       <c r="I72" s="60"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="59"/>
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
@@ -9115,12 +9188,8 @@
       <c r="G73" s="60"/>
       <c r="H73" s="59"/>
       <c r="I73" s="60"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="61"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="61"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="59"/>
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
@@ -9130,12 +9199,8 @@
       <c r="G74" s="60"/>
       <c r="H74" s="59"/>
       <c r="I74" s="60"/>
-      <c r="J74" s="61"/>
-      <c r="K74" s="61"/>
-      <c r="L74" s="61"/>
-      <c r="M74" s="61"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="59"/>
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
@@ -9145,12 +9210,8 @@
       <c r="G75" s="60"/>
       <c r="H75" s="59"/>
       <c r="I75" s="60"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="61"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="59"/>
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
@@ -9160,12 +9221,8 @@
       <c r="G76" s="60"/>
       <c r="H76" s="59"/>
       <c r="I76" s="60"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="61"/>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="59"/>
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
@@ -9175,12 +9232,8 @@
       <c r="G77" s="60"/>
       <c r="H77" s="59"/>
       <c r="I77" s="60"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="61"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="61"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="59"/>
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
@@ -9190,12 +9243,8 @@
       <c r="G78" s="60"/>
       <c r="H78" s="59"/>
       <c r="I78" s="60"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="61"/>
-      <c r="L78" s="61"/>
-      <c r="M78" s="61"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="59"/>
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
@@ -9205,12 +9254,8 @@
       <c r="G79" s="60"/>
       <c r="H79" s="59"/>
       <c r="I79" s="60"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="61"/>
-      <c r="L79" s="61"/>
-      <c r="M79" s="61"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="59"/>
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
@@ -9220,12 +9265,8 @@
       <c r="G80" s="60"/>
       <c r="H80" s="59"/>
       <c r="I80" s="60"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="61"/>
-      <c r="L80" s="61"/>
-      <c r="M80" s="61"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="59"/>
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
@@ -9235,12 +9276,8 @@
       <c r="G81" s="60"/>
       <c r="H81" s="59"/>
       <c r="I81" s="60"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="61"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="61"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="59"/>
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
@@ -9250,12 +9287,8 @@
       <c r="G82" s="60"/>
       <c r="H82" s="59"/>
       <c r="I82" s="60"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="61"/>
-      <c r="L82" s="61"/>
-      <c r="M82" s="61"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="59"/>
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
@@ -9265,12 +9298,8 @@
       <c r="G83" s="60"/>
       <c r="H83" s="59"/>
       <c r="I83" s="60"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="61"/>
-      <c r="L83" s="61"/>
-      <c r="M83" s="61"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="59"/>
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
@@ -9280,12 +9309,8 @@
       <c r="G84" s="60"/>
       <c r="H84" s="59"/>
       <c r="I84" s="60"/>
-      <c r="J84" s="61"/>
-      <c r="K84" s="61"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="61"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="59"/>
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
@@ -9295,12 +9320,8 @@
       <c r="G85" s="60"/>
       <c r="H85" s="59"/>
       <c r="I85" s="60"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="59"/>
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
@@ -9310,12 +9331,8 @@
       <c r="G86" s="60"/>
       <c r="H86" s="59"/>
       <c r="I86" s="60"/>
-      <c r="J86" s="61"/>
-      <c r="K86" s="61"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="61"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="59"/>
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
@@ -9325,12 +9342,8 @@
       <c r="G87" s="60"/>
       <c r="H87" s="59"/>
       <c r="I87" s="60"/>
-      <c r="J87" s="61"/>
-      <c r="K87" s="61"/>
-      <c r="L87" s="61"/>
-      <c r="M87" s="61"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="59"/>
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
@@ -9340,12 +9353,8 @@
       <c r="G88" s="60"/>
       <c r="H88" s="59"/>
       <c r="I88" s="60"/>
-      <c r="J88" s="61"/>
-      <c r="K88" s="61"/>
-      <c r="L88" s="61"/>
-      <c r="M88" s="61"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="59"/>
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
@@ -9355,12 +9364,8 @@
       <c r="G89" s="60"/>
       <c r="H89" s="59"/>
       <c r="I89" s="60"/>
-      <c r="J89" s="61"/>
-      <c r="K89" s="61"/>
-      <c r="L89" s="61"/>
-      <c r="M89" s="61"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="59"/>
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
@@ -9370,12 +9375,8 @@
       <c r="G90" s="60"/>
       <c r="H90" s="59"/>
       <c r="I90" s="60"/>
-      <c r="J90" s="61"/>
-      <c r="K90" s="61"/>
-      <c r="L90" s="61"/>
-      <c r="M90" s="61"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="59"/>
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
@@ -9385,12 +9386,8 @@
       <c r="G91" s="60"/>
       <c r="H91" s="59"/>
       <c r="I91" s="60"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="61"/>
-      <c r="L91" s="61"/>
-      <c r="M91" s="61"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="59"/>
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
@@ -9400,12 +9397,8 @@
       <c r="G92" s="60"/>
       <c r="H92" s="59"/>
       <c r="I92" s="60"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-      <c r="L92" s="61"/>
-      <c r="M92" s="61"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="59"/>
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
@@ -9415,12 +9408,8 @@
       <c r="G93" s="60"/>
       <c r="H93" s="59"/>
       <c r="I93" s="60"/>
-      <c r="J93" s="61"/>
-      <c r="K93" s="61"/>
-      <c r="L93" s="61"/>
-      <c r="M93" s="61"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="59"/>
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
@@ -9430,12 +9419,8 @@
       <c r="G94" s="60"/>
       <c r="H94" s="59"/>
       <c r="I94" s="60"/>
-      <c r="J94" s="61"/>
-      <c r="K94" s="61"/>
-      <c r="L94" s="61"/>
-      <c r="M94" s="61"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="59"/>
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
@@ -9445,12 +9430,8 @@
       <c r="G95" s="60"/>
       <c r="H95" s="59"/>
       <c r="I95" s="60"/>
-      <c r="J95" s="61"/>
-      <c r="K95" s="61"/>
-      <c r="L95" s="61"/>
-      <c r="M95" s="61"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="59"/>
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
@@ -9460,11 +9441,8 @@
       <c r="G96" s="60"/>
       <c r="H96" s="59"/>
       <c r="I96" s="60"/>
-      <c r="J96" s="61"/>
-      <c r="K96" s="61"/>
-      <c r="L96" s="61"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="59"/>
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
@@ -9474,11 +9452,8 @@
       <c r="G97" s="60"/>
       <c r="H97" s="59"/>
       <c r="I97" s="60"/>
-      <c r="J97" s="61"/>
-      <c r="K97" s="61"/>
-      <c r="L97" s="61"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="59"/>
       <c r="B98" s="59"/>
       <c r="C98" s="59"/>
@@ -9488,11 +9463,8 @@
       <c r="G98" s="60"/>
       <c r="H98" s="59"/>
       <c r="I98" s="60"/>
-      <c r="J98" s="61"/>
-      <c r="K98" s="61"/>
-      <c r="L98" s="61"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="59"/>
       <c r="B99" s="59"/>
       <c r="C99" s="59"/>
@@ -9502,11 +9474,8 @@
       <c r="G99" s="60"/>
       <c r="H99" s="59"/>
       <c r="I99" s="60"/>
-      <c r="J99" s="61"/>
-      <c r="K99" s="61"/>
-      <c r="L99" s="61"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="59"/>
       <c r="B100" s="59"/>
       <c r="C100" s="59"/>
@@ -9516,11 +9485,8 @@
       <c r="G100" s="60"/>
       <c r="H100" s="59"/>
       <c r="I100" s="60"/>
-      <c r="J100" s="61"/>
-      <c r="K100" s="61"/>
-      <c r="L100" s="61"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="59"/>
       <c r="B101" s="59"/>
       <c r="C101" s="59"/>
@@ -9530,11 +9496,8 @@
       <c r="G101" s="60"/>
       <c r="H101" s="59"/>
       <c r="I101" s="60"/>
-      <c r="J101" s="61"/>
-      <c r="K101" s="61"/>
-      <c r="L101" s="61"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="59"/>
       <c r="B102" s="59"/>
       <c r="C102" s="59"/>
@@ -9544,11 +9507,8 @@
       <c r="G102" s="60"/>
       <c r="H102" s="59"/>
       <c r="I102" s="60"/>
-      <c r="J102" s="61"/>
-      <c r="K102" s="61"/>
-      <c r="L102" s="61"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="59"/>
       <c r="B103" s="59"/>
       <c r="C103" s="59"/>
@@ -9558,11 +9518,8 @@
       <c r="G103" s="60"/>
       <c r="H103" s="59"/>
       <c r="I103" s="60"/>
-      <c r="J103" s="61"/>
-      <c r="K103" s="61"/>
-      <c r="L103" s="61"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="59"/>
       <c r="B104" s="59"/>
       <c r="C104" s="59"/>
@@ -9572,11 +9529,8 @@
       <c r="G104" s="60"/>
       <c r="H104" s="59"/>
       <c r="I104" s="60"/>
-      <c r="J104" s="61"/>
-      <c r="K104" s="61"/>
-      <c r="L104" s="61"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="59"/>
       <c r="B105" s="59"/>
       <c r="C105" s="59"/>
@@ -9586,11 +9540,8 @@
       <c r="G105" s="60"/>
       <c r="H105" s="59"/>
       <c r="I105" s="60"/>
-      <c r="J105" s="61"/>
-      <c r="K105" s="61"/>
-      <c r="L105" s="61"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="59"/>
       <c r="B106" s="59"/>
       <c r="C106" s="59"/>
@@ -9600,11 +9551,8 @@
       <c r="G106" s="60"/>
       <c r="H106" s="59"/>
       <c r="I106" s="60"/>
-      <c r="J106" s="61"/>
-      <c r="K106" s="61"/>
-      <c r="L106" s="61"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="59"/>
       <c r="B107" s="59"/>
       <c r="C107" s="59"/>
@@ -9614,11 +9562,8 @@
       <c r="G107" s="60"/>
       <c r="H107" s="59"/>
       <c r="I107" s="60"/>
-      <c r="J107" s="61"/>
-      <c r="K107" s="61"/>
-      <c r="L107" s="61"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="59"/>
       <c r="B108" s="59"/>
       <c r="C108" s="59"/>
@@ -9628,11 +9573,8 @@
       <c r="G108" s="60"/>
       <c r="H108" s="59"/>
       <c r="I108" s="60"/>
-      <c r="J108" s="61"/>
-      <c r="K108" s="61"/>
-      <c r="L108" s="61"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="59"/>
       <c r="B109" s="59"/>
       <c r="C109" s="59"/>
@@ -9642,11 +9584,8 @@
       <c r="G109" s="60"/>
       <c r="H109" s="59"/>
       <c r="I109" s="60"/>
-      <c r="J109" s="61"/>
-      <c r="K109" s="61"/>
-      <c r="L109" s="61"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="59"/>
       <c r="B110" s="59"/>
       <c r="C110" s="59"/>
@@ -9656,11 +9595,8 @@
       <c r="G110" s="60"/>
       <c r="H110" s="59"/>
       <c r="I110" s="60"/>
-      <c r="J110" s="61"/>
-      <c r="K110" s="61"/>
-      <c r="L110" s="61"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="59"/>
       <c r="B111" s="59"/>
       <c r="C111" s="59"/>
@@ -9670,11 +9606,8 @@
       <c r="G111" s="60"/>
       <c r="H111" s="59"/>
       <c r="I111" s="60"/>
-      <c r="J111" s="61"/>
-      <c r="K111" s="61"/>
-      <c r="L111" s="61"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="59"/>
       <c r="B112" s="59"/>
       <c r="C112" s="59"/>
@@ -9684,11 +9617,8 @@
       <c r="G112" s="60"/>
       <c r="H112" s="59"/>
       <c r="I112" s="60"/>
-      <c r="J112" s="61"/>
-      <c r="K112" s="61"/>
-      <c r="L112" s="61"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="59"/>
       <c r="B113" s="59"/>
       <c r="C113" s="59"/>
@@ -9698,11 +9628,8 @@
       <c r="G113" s="60"/>
       <c r="H113" s="59"/>
       <c r="I113" s="60"/>
-      <c r="J113" s="61"/>
-      <c r="K113" s="61"/>
-      <c r="L113" s="61"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="59"/>
       <c r="B114" s="59"/>
       <c r="C114" s="59"/>
@@ -9712,11 +9639,8 @@
       <c r="G114" s="60"/>
       <c r="H114" s="59"/>
       <c r="I114" s="60"/>
-      <c r="J114" s="61"/>
-      <c r="K114" s="61"/>
-      <c r="L114" s="61"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" s="59"/>
       <c r="B115" s="59"/>
       <c r="C115" s="59"/>
@@ -9726,11 +9650,8 @@
       <c r="G115" s="60"/>
       <c r="H115" s="59"/>
       <c r="I115" s="60"/>
-      <c r="J115" s="61"/>
-      <c r="K115" s="61"/>
-      <c r="L115" s="61"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" s="59"/>
       <c r="B116" s="59"/>
       <c r="C116" s="59"/>
@@ -9740,11 +9661,8 @@
       <c r="G116" s="60"/>
       <c r="H116" s="59"/>
       <c r="I116" s="60"/>
-      <c r="J116" s="61"/>
-      <c r="K116" s="61"/>
-      <c r="L116" s="61"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" s="59"/>
       <c r="B117" s="59"/>
       <c r="C117" s="59"/>
@@ -9754,11 +9672,8 @@
       <c r="G117" s="60"/>
       <c r="H117" s="59"/>
       <c r="I117" s="60"/>
-      <c r="J117" s="61"/>
-      <c r="K117" s="61"/>
-      <c r="L117" s="61"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" s="59"/>
       <c r="B118" s="59"/>
       <c r="C118" s="59"/>
@@ -9768,11 +9683,8 @@
       <c r="G118" s="60"/>
       <c r="H118" s="59"/>
       <c r="I118" s="60"/>
-      <c r="J118" s="61"/>
-      <c r="K118" s="61"/>
-      <c r="L118" s="61"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119" s="59"/>
       <c r="B119" s="59"/>
       <c r="C119" s="59"/>
@@ -9782,11 +9694,8 @@
       <c r="G119" s="60"/>
       <c r="H119" s="59"/>
       <c r="I119" s="60"/>
-      <c r="J119" s="61"/>
-      <c r="K119" s="61"/>
-      <c r="L119" s="61"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" s="59"/>
       <c r="B120" s="59"/>
       <c r="C120" s="59"/>
@@ -9796,11 +9705,8 @@
       <c r="G120" s="60"/>
       <c r="H120" s="59"/>
       <c r="I120" s="60"/>
-      <c r="J120" s="61"/>
-      <c r="K120" s="61"/>
-      <c r="L120" s="61"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" s="59"/>
       <c r="B121" s="59"/>
       <c r="C121" s="59"/>
@@ -9810,11 +9716,8 @@
       <c r="G121" s="60"/>
       <c r="H121" s="59"/>
       <c r="I121" s="60"/>
-      <c r="J121" s="61"/>
-      <c r="K121" s="61"/>
-      <c r="L121" s="61"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" s="59"/>
       <c r="B122" s="59"/>
       <c r="C122" s="59"/>
@@ -9824,11 +9727,8 @@
       <c r="G122" s="60"/>
       <c r="H122" s="59"/>
       <c r="I122" s="60"/>
-      <c r="J122" s="61"/>
-      <c r="K122" s="61"/>
-      <c r="L122" s="61"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" s="59"/>
       <c r="B123" s="59"/>
       <c r="C123" s="59"/>
@@ -9838,11 +9738,8 @@
       <c r="G123" s="60"/>
       <c r="H123" s="59"/>
       <c r="I123" s="60"/>
-      <c r="J123" s="61"/>
-      <c r="K123" s="61"/>
-      <c r="L123" s="61"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124" s="59"/>
       <c r="B124" s="59"/>
       <c r="C124" s="59"/>
@@ -9852,11 +9749,8 @@
       <c r="G124" s="60"/>
       <c r="H124" s="59"/>
       <c r="I124" s="60"/>
-      <c r="J124" s="61"/>
-      <c r="K124" s="61"/>
-      <c r="L124" s="61"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125" s="59"/>
       <c r="B125" s="59"/>
       <c r="C125" s="59"/>
@@ -9866,11 +9760,8 @@
       <c r="G125" s="60"/>
       <c r="H125" s="59"/>
       <c r="I125" s="60"/>
-      <c r="J125" s="61"/>
-      <c r="K125" s="61"/>
-      <c r="L125" s="61"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126" s="59"/>
       <c r="B126" s="59"/>
       <c r="C126" s="59"/>
@@ -9880,11 +9771,8 @@
       <c r="G126" s="60"/>
       <c r="H126" s="59"/>
       <c r="I126" s="60"/>
-      <c r="J126" s="61"/>
-      <c r="K126" s="61"/>
-      <c r="L126" s="61"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127" s="59"/>
       <c r="B127" s="59"/>
       <c r="C127" s="59"/>
@@ -9894,11 +9782,8 @@
       <c r="G127" s="60"/>
       <c r="H127" s="59"/>
       <c r="I127" s="60"/>
-      <c r="J127" s="61"/>
-      <c r="K127" s="61"/>
-      <c r="L127" s="61"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" s="59"/>
       <c r="B128" s="59"/>
       <c r="C128" s="59"/>
@@ -9908,11 +9793,8 @@
       <c r="G128" s="60"/>
       <c r="H128" s="59"/>
       <c r="I128" s="60"/>
-      <c r="J128" s="61"/>
-      <c r="K128" s="61"/>
-      <c r="L128" s="61"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129" s="59"/>
       <c r="B129" s="59"/>
       <c r="C129" s="59"/>
@@ -9922,9 +9804,8 @@
       <c r="G129" s="60"/>
       <c r="H129" s="59"/>
       <c r="I129" s="60"/>
-      <c r="J129" s="61"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A130" s="59"/>
       <c r="B130" s="59"/>
       <c r="C130" s="59"/>
@@ -9934,9 +9815,8 @@
       <c r="G130" s="60"/>
       <c r="H130" s="59"/>
       <c r="I130" s="60"/>
-      <c r="J130" s="61"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A131" s="59"/>
       <c r="B131" s="59"/>
       <c r="C131" s="59"/>
@@ -9946,9 +9826,8 @@
       <c r="G131" s="60"/>
       <c r="H131" s="59"/>
       <c r="I131" s="60"/>
-      <c r="J131" s="61"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A132" s="59"/>
       <c r="B132" s="59"/>
       <c r="C132" s="59"/>
@@ -9958,9 +9837,8 @@
       <c r="G132" s="60"/>
       <c r="H132" s="59"/>
       <c r="I132" s="60"/>
-      <c r="J132" s="61"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A133" s="59"/>
       <c r="B133" s="59"/>
       <c r="C133" s="59"/>
@@ -9970,9 +9848,8 @@
       <c r="G133" s="60"/>
       <c r="H133" s="59"/>
       <c r="I133" s="60"/>
-      <c r="J133" s="61"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A134" s="59"/>
       <c r="B134" s="59"/>
       <c r="C134" s="59"/>
@@ -9982,9 +9859,8 @@
       <c r="G134" s="60"/>
       <c r="H134" s="59"/>
       <c r="I134" s="60"/>
-      <c r="J134" s="61"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A135" s="59"/>
       <c r="B135" s="59"/>
       <c r="C135" s="59"/>
@@ -9994,9 +9870,8 @@
       <c r="G135" s="60"/>
       <c r="H135" s="59"/>
       <c r="I135" s="60"/>
-      <c r="J135" s="61"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A136" s="59"/>
       <c r="B136" s="59"/>
       <c r="C136" s="59"/>
@@ -10006,9 +9881,8 @@
       <c r="G136" s="60"/>
       <c r="H136" s="59"/>
       <c r="I136" s="60"/>
-      <c r="J136" s="61"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A137" s="59"/>
       <c r="B137" s="59"/>
       <c r="C137" s="59"/>
@@ -10018,9 +9892,8 @@
       <c r="G137" s="60"/>
       <c r="H137" s="59"/>
       <c r="I137" s="60"/>
-      <c r="J137" s="61"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A138" s="59"/>
       <c r="B138" s="59"/>
       <c r="C138" s="59"/>
@@ -10030,9 +9903,8 @@
       <c r="G138" s="60"/>
       <c r="H138" s="59"/>
       <c r="I138" s="60"/>
-      <c r="J138" s="61"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A139" s="59"/>
       <c r="B139" s="59"/>
       <c r="C139" s="59"/>
@@ -10042,9 +9914,8 @@
       <c r="G139" s="60"/>
       <c r="H139" s="59"/>
       <c r="I139" s="60"/>
-      <c r="J139" s="61"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A140" s="59"/>
       <c r="B140" s="59"/>
       <c r="C140" s="59"/>
@@ -10054,9 +9925,8 @@
       <c r="G140" s="60"/>
       <c r="H140" s="59"/>
       <c r="I140" s="60"/>
-      <c r="J140" s="61"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A141" s="59"/>
       <c r="B141" s="59"/>
       <c r="C141" s="59"/>
@@ -10066,9 +9936,8 @@
       <c r="G141" s="60"/>
       <c r="H141" s="59"/>
       <c r="I141" s="60"/>
-      <c r="J141" s="61"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A142" s="59"/>
       <c r="B142" s="59"/>
       <c r="C142" s="59"/>
@@ -10078,9 +9947,8 @@
       <c r="G142" s="60"/>
       <c r="H142" s="59"/>
       <c r="I142" s="60"/>
-      <c r="J142" s="61"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A143" s="59"/>
       <c r="B143" s="59"/>
       <c r="C143" s="59"/>
@@ -10090,9 +9958,8 @@
       <c r="G143" s="60"/>
       <c r="H143" s="59"/>
       <c r="I143" s="60"/>
-      <c r="J143" s="61"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A144" s="59"/>
       <c r="B144" s="59"/>
       <c r="C144" s="59"/>
@@ -10102,9 +9969,8 @@
       <c r="G144" s="60"/>
       <c r="H144" s="59"/>
       <c r="I144" s="60"/>
-      <c r="J144" s="61"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145" s="59"/>
       <c r="B145" s="59"/>
       <c r="C145" s="59"/>
@@ -10114,9 +9980,8 @@
       <c r="G145" s="60"/>
       <c r="H145" s="59"/>
       <c r="I145" s="60"/>
-      <c r="J145" s="61"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146" s="59"/>
       <c r="B146" s="59"/>
       <c r="C146" s="59"/>
@@ -10126,9 +9991,8 @@
       <c r="G146" s="60"/>
       <c r="H146" s="59"/>
       <c r="I146" s="60"/>
-      <c r="J146" s="61"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147" s="59"/>
       <c r="B147" s="59"/>
       <c r="C147" s="59"/>
@@ -10138,9 +10002,8 @@
       <c r="G147" s="60"/>
       <c r="H147" s="59"/>
       <c r="I147" s="60"/>
-      <c r="J147" s="61"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148" s="59"/>
       <c r="B148" s="59"/>
       <c r="C148" s="59"/>
@@ -10150,9 +10013,8 @@
       <c r="G148" s="60"/>
       <c r="H148" s="59"/>
       <c r="I148" s="60"/>
-      <c r="J148" s="61"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149" s="59"/>
       <c r="B149" s="59"/>
       <c r="C149" s="59"/>
@@ -10162,9 +10024,8 @@
       <c r="G149" s="60"/>
       <c r="H149" s="59"/>
       <c r="I149" s="60"/>
-      <c r="J149" s="61"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150" s="59"/>
       <c r="B150" s="59"/>
       <c r="C150" s="59"/>
@@ -10174,9 +10035,8 @@
       <c r="G150" s="60"/>
       <c r="H150" s="59"/>
       <c r="I150" s="60"/>
-      <c r="J150" s="61"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A151" s="59"/>
       <c r="B151" s="59"/>
       <c r="C151" s="59"/>
@@ -10186,9 +10046,8 @@
       <c r="G151" s="60"/>
       <c r="H151" s="59"/>
       <c r="I151" s="60"/>
-      <c r="J151" s="61"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152" s="59"/>
       <c r="B152" s="59"/>
       <c r="C152" s="59"/>
@@ -10198,12 +10057,22 @@
       <c r="G152" s="60"/>
       <c r="H152" s="59"/>
       <c r="I152" s="60"/>
-      <c r="J152" s="61"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A153" s="59"/>
+      <c r="B153" s="59"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="59"/>
+      <c r="E153" s="59"/>
+      <c r="F153" s="60"/>
+      <c r="G153" s="60"/>
+      <c r="H153" s="59"/>
+      <c r="I153" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Meter IPC Application Protocol_2017_07_11.xlsx
+++ b/Meter IPC Application Protocol_2017_07_11.xlsx
@@ -669,10 +669,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>High Beam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Low Beam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1412,88 +1408,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">Automatic headlamps activated </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic headlamps deactivated </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automatic wiper activated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front crash warning system fault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方碰撞预警系统故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示器符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有没有指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lcd符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0x1 : "Tire pressure high"
 0x2 : "Tire pressure low"
-0x3 :Tire fast leakage
+0x3 : "Tire fast leakage"
 0x4 : "TPMS sensor lost"
 0x5 : "TPMS sensor battery low"
 0x6 : "TPMS sensor fault"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Automatic headlamps activated </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatic headlamps deactivated </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Automatic wiper activated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Front crash warning system fault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前方碰撞预警系统故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指示器符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有没有指示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lcd符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time Frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间范围</t>
+    <t>High Beam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2316,9 +2316,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2331,33 +2373,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2366,21 +2381,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2743,7 +2743,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6105525" y="12280695"/>
+          <a:off x="5664062" y="13907399"/>
           <a:ext cx="1000958" cy="806656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3720,7 +3720,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6219825" y="22517100"/>
+          <a:off x="5730737" y="23812914"/>
           <a:ext cx="762000" cy="666472"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3852,7 +3852,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6419850" y="25603200"/>
+          <a:off x="5930762" y="26899842"/>
           <a:ext cx="479616" cy="557892"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4692,9 +4692,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>770283</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>82410</xdr:rowOff>
+      <xdr:rowOff>119268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -4723,8 +4723,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4626251" y="2583758"/>
-          <a:ext cx="457200" cy="457200"/>
+          <a:off x="4663109" y="2620616"/>
+          <a:ext cx="420342" cy="420342"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5044,15 +5044,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>475008</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>175592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
+      <xdr:colOff>998883</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5075,7 +5075,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4362450" y="12706350"/>
+          <a:off x="4367834" y="13386353"/>
           <a:ext cx="523875" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5648,10 +5648,10 @@
         <v>116</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -5659,13 +5659,13 @@
         <v>42886</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="D16" s="54" t="s">
         <v>264</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5673,13 +5673,13 @@
         <v>42887</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -5687,13 +5687,13 @@
         <v>42891</v>
       </c>
       <c r="B18" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="D18" s="54" t="s">
         <v>271</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -5701,13 +5701,13 @@
         <v>42898</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="79" t="s">
         <v>275</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="D19" s="91" t="s">
         <v>276</v>
-      </c>
-      <c r="D19" s="91" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -5715,13 +5715,13 @@
         <v>42899</v>
       </c>
       <c r="B20" s="70" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="D20" s="92" t="s">
         <v>282</v>
-      </c>
-      <c r="D20" s="92" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -5729,13 +5729,13 @@
         <v>42900</v>
       </c>
       <c r="B21" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="D21" s="92" t="s">
         <v>286</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -5743,13 +5743,13 @@
         <v>42904</v>
       </c>
       <c r="B22" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="D22" s="93" t="s">
         <v>295</v>
-      </c>
-      <c r="D22" s="93" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5757,13 +5757,13 @@
         <v>42905</v>
       </c>
       <c r="B23" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="C23" s="86" t="s">
-        <v>299</v>
-      </c>
       <c r="D23" s="94" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -5771,13 +5771,13 @@
         <v>42912</v>
       </c>
       <c r="B24" s="80" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="D24" s="93" t="s">
         <v>311</v>
-      </c>
-      <c r="D24" s="93" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5880,8 +5880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5901,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -5926,17 +5926,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="112">
+      <c r="B2" s="107">
         <v>2</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="112" t="s">
-        <v>273</v>
+      <c r="D2" s="107" t="s">
+        <v>272</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
@@ -5955,10 +5955,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="107"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
@@ -5976,11 +5976,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="107"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="108" t="s">
+      <c r="A4" s="114"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="122" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="16">
@@ -5997,11 +5997,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="107"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="108"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="16">
         <v>15</v>
       </c>
@@ -6016,11 +6016,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="107"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="108" t="s">
+      <c r="A6" s="114"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="122" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="16">
@@ -6037,11 +6037,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="107"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="108"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="16">
         <v>7</v>
       </c>
@@ -6056,11 +6056,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="107"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="108" t="s">
+      <c r="A8" s="114"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="122" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="16">
@@ -6077,11 +6077,11 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="107"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="111"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="125"/>
       <c r="F9" s="17">
         <v>7</v>
       </c>
@@ -6096,19 +6096,19 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="112">
+      <c r="B10" s="107">
         <v>2</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="125" t="s">
+      <c r="E10" s="121" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="4">
@@ -6125,11 +6125,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="119"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="108"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="16">
         <v>14</v>
       </c>
@@ -6144,11 +6144,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="119"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="108" t="s">
+      <c r="A12" s="120"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="122" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="16">
@@ -6165,11 +6165,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="119"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="108"/>
+      <c r="A13" s="120"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="16">
         <v>14</v>
       </c>
@@ -6184,12 +6184,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="119"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="111" t="s">
-        <v>258</v>
+      <c r="A14" s="120"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="125" t="s">
+        <v>257</v>
       </c>
       <c r="F14" s="67">
         <v>2</v>
@@ -6205,11 +6205,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="119"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="110"/>
+      <c r="A15" s="120"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="67">
         <v>14</v>
       </c>
@@ -6224,12 +6224,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="119"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="108" t="s">
-        <v>259</v>
+      <c r="A16" s="120"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="122" t="s">
+        <v>258</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
@@ -6245,11 +6245,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A17" s="119"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="108"/>
+      <c r="A17" s="120"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="122"/>
       <c r="F17" s="16">
         <v>7</v>
       </c>
@@ -6257,18 +6257,18 @@
         <v>13</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="124"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="111" t="s">
+      <c r="A18" s="119"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="125" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="16">
@@ -6285,11 +6285,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A19" s="124"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
       <c r="F19" s="17">
         <v>2</v>
       </c>
@@ -6304,11 +6304,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="176.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="120"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
       <c r="F20" s="5">
         <v>5</v>
       </c>
@@ -6319,24 +6319,24 @@
         <v>30</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="112">
+      <c r="B21" s="107">
         <v>2</v>
       </c>
-      <c r="C21" s="113" t="s">
+      <c r="C21" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="112" t="s">
+      <c r="D21" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="113" t="s">
-        <v>261</v>
+      <c r="E21" s="108" t="s">
+        <v>260</v>
       </c>
       <c r="F21" s="18">
         <v>2</v>
@@ -6352,11 +6352,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="107"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="110"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="16">
         <v>22</v>
       </c>
@@ -6371,12 +6371,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="107"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="111" t="s">
-        <v>262</v>
+      <c r="A23" s="114"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="125" t="s">
+        <v>261</v>
       </c>
       <c r="F23" s="16">
         <v>2</v>
@@ -6392,11 +6392,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="107"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="110"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="16">
         <v>22</v>
       </c>
@@ -6411,12 +6411,12 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="107"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="111" t="s">
-        <v>258</v>
+      <c r="A25" s="114"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="125" t="s">
+        <v>257</v>
       </c>
       <c r="F25" s="16">
         <v>2</v>
@@ -6432,11 +6432,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="107"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="40">
         <v>22</v>
       </c>
@@ -6451,19 +6451,19 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="112">
+      <c r="B27" s="107">
         <v>1</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="126" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="126" t="s">
+      <c r="D27" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="125" t="s">
+      <c r="E27" s="121" t="s">
         <v>133</v>
       </c>
       <c r="F27" s="61">
@@ -6476,15 +6476,15 @@
         <v>134</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="119"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="108"/>
+      <c r="A28" s="120"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="62">
         <v>8</v>
       </c>
@@ -6495,15 +6495,15 @@
         <v>135</v>
       </c>
       <c r="I28" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="119"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="108" t="s">
+      <c r="A29" s="120"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="122" t="s">
         <v>75</v>
       </c>
       <c r="F29" s="62">
@@ -6518,11 +6518,11 @@
       <c r="I29" s="46"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="119"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="108"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="122"/>
       <c r="F30" s="62">
         <v>8</v>
       </c>
@@ -6535,11 +6535,11 @@
       <c r="I30" s="47"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="119"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="108" t="s">
+      <c r="A31" s="120"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="122" t="s">
         <v>76</v>
       </c>
       <c r="F31" s="62">
@@ -6554,11 +6554,11 @@
       <c r="I31" s="46"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="119"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="108"/>
+      <c r="A32" s="120"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="122"/>
       <c r="F32" s="62">
         <v>8</v>
       </c>
@@ -6571,11 +6571,11 @@
       <c r="I32" s="47"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="119"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="108" t="s">
+      <c r="A33" s="120"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="122" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="62">
@@ -6590,11 +6590,11 @@
       <c r="I33" s="46"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="120"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="109"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="123"/>
       <c r="F34" s="63">
         <v>8</v>
       </c>
@@ -6607,19 +6607,19 @@
       <c r="I34" s="48"/>
     </row>
     <row r="35" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="112">
+      <c r="B35" s="107">
         <v>1</v>
       </c>
-      <c r="C35" s="115" t="s">
+      <c r="C35" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="115" t="s">
+      <c r="D35" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="110" t="s">
+      <c r="E35" s="124" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="38">
@@ -6632,15 +6632,15 @@
         <v>137</v>
       </c>
       <c r="I35" s="44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="107"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="108"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="122"/>
       <c r="F36" s="37">
         <v>8</v>
       </c>
@@ -6655,11 +6655,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="107"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="108" t="s">
+      <c r="A37" s="114"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="122" t="s">
         <v>75</v>
       </c>
       <c r="F37" s="37">
@@ -6674,11 +6674,11 @@
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="107"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="108"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="122"/>
       <c r="F38" s="37">
         <v>8</v>
       </c>
@@ -6691,11 +6691,11 @@
       <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="107"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="108" t="s">
+      <c r="A39" s="114"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="122" t="s">
         <v>76</v>
       </c>
       <c r="F39" s="37">
@@ -6710,11 +6710,11 @@
       <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="107"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="108"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="122"/>
       <c r="F40" s="37">
         <v>8</v>
       </c>
@@ -6727,11 +6727,11 @@
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="107"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="108" t="s">
+      <c r="A41" s="114"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="122" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="37">
@@ -6746,11 +6746,11 @@
       <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="107"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="111"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="125"/>
       <c r="F42" s="40">
         <v>8</v>
       </c>
@@ -6763,16 +6763,16 @@
       <c r="I42" s="44"/>
     </row>
     <row r="43" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="116" t="s">
-        <v>247</v>
-      </c>
-      <c r="B43" s="112">
+      <c r="A43" s="113" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" s="107">
         <v>2</v>
       </c>
-      <c r="C43" s="112" t="s">
+      <c r="C43" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="112" t="s">
+      <c r="D43" s="107" t="s">
         <v>92</v>
       </c>
       <c r="E43" s="73" t="s">
@@ -6785,17 +6785,17 @@
         <v>13</v>
       </c>
       <c r="H43" s="73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A44" s="107"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
       <c r="E44" s="74" t="s">
         <v>75</v>
       </c>
@@ -6806,17 +6806,17 @@
         <v>13</v>
       </c>
       <c r="H44" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="I44" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="I44" s="15" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="45" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A45" s="107"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
       <c r="E45" s="74" t="s">
         <v>76</v>
       </c>
@@ -6834,10 +6834,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A46" s="107"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
+      <c r="A46" s="114"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108"/>
       <c r="E46" s="74" t="s">
         <v>8</v>
       </c>
@@ -6855,10 +6855,10 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="107"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
+      <c r="A47" s="114"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
       <c r="E47" s="74" t="s">
         <v>9</v>
       </c>
@@ -6876,12 +6876,12 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="107"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
       <c r="E48" s="74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F48" s="77">
         <v>1</v>
@@ -6895,12 +6895,12 @@
       <c r="I48" s="24"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="117"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
+      <c r="A49" s="115"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
       <c r="E49" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F49" s="75">
         <v>8</v>
@@ -6916,16 +6916,16 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A50" s="107" t="s">
-        <v>248</v>
-      </c>
-      <c r="B50" s="113">
+      <c r="A50" s="114" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" s="108">
         <v>2</v>
       </c>
-      <c r="C50" s="113" t="s">
+      <c r="C50" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="113" t="s">
+      <c r="D50" s="108" t="s">
         <v>92</v>
       </c>
       <c r="E50" s="76" t="s">
@@ -6941,14 +6941,14 @@
         <v>32</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A51" s="107"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
       <c r="E51" s="56" t="s">
         <v>7</v>
       </c>
@@ -6966,12 +6966,12 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="108" x14ac:dyDescent="0.15">
-      <c r="A52" s="107"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="108"/>
       <c r="E52" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F52" s="56">
         <v>3</v>
@@ -6987,12 +6987,12 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A53" s="107"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
+      <c r="A53" s="114"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="108"/>
       <c r="E53" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F53" s="56">
         <v>8</v>
@@ -7008,12 +7008,12 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="117"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="114"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="109"/>
       <c r="E54" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F54" s="57">
         <v>8</v>
@@ -7029,17 +7029,17 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A55" s="107" t="s">
-        <v>249</v>
-      </c>
-      <c r="B55" s="112">
+      <c r="A55" s="114" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" s="107">
         <v>2</v>
       </c>
-      <c r="C55" s="113" t="s">
-        <v>241</v>
-      </c>
-      <c r="D55" s="113"/>
-      <c r="E55" s="112" t="s">
+      <c r="C55" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" s="108"/>
+      <c r="E55" s="107" t="s">
         <v>5</v>
       </c>
       <c r="F55" s="55">
@@ -7056,11 +7056,11 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A56" s="107"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
       <c r="F56" s="56">
         <v>2</v>
       </c>
@@ -7075,11 +7075,11 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="107"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="113"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
       <c r="F57" s="56">
         <v>4</v>
       </c>
@@ -7094,12 +7094,12 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="107"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="108"/>
       <c r="E58" s="98" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F58" s="56">
         <v>8</v>
@@ -7108,19 +7108,19 @@
         <v>13</v>
       </c>
       <c r="H58" s="49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="107"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
+      <c r="A59" s="114"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
       <c r="E59" s="98" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F59" s="56">
         <v>16</v>
@@ -7129,19 +7129,19 @@
         <v>13</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I59" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="107"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="108"/>
       <c r="E60" s="98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F60" s="16">
         <v>16</v>
@@ -7150,17 +7150,17 @@
         <v>13</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I60" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="107"/>
-      <c r="B61" s="113"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
       <c r="E61" s="99"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
@@ -7169,16 +7169,16 @@
       <c r="J61" s="90"/>
     </row>
     <row r="62" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A62" s="118" t="s">
-        <v>250</v>
-      </c>
-      <c r="B62" s="112">
+      <c r="A62" s="116" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" s="107">
         <v>1</v>
       </c>
-      <c r="C62" s="125" t="s">
+      <c r="C62" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="112" t="s">
+      <c r="D62" s="107" t="s">
         <v>92</v>
       </c>
       <c r="E62" s="82" t="s">
@@ -7198,10 +7198,10 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A63" s="107"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="108"/>
+      <c r="D63" s="108"/>
       <c r="E63" s="83" t="s">
         <v>7</v>
       </c>
@@ -7212,17 +7212,17 @@
         <v>13</v>
       </c>
       <c r="H63" s="83" t="s">
+        <v>300</v>
+      </c>
+      <c r="I63" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="I63" s="11" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="64" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="120"/>
-      <c r="B64" s="114"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="114"/>
+      <c r="A64" s="117"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="123"/>
+      <c r="D64" s="109"/>
       <c r="E64" s="84" t="s">
         <v>45</v>
       </c>
@@ -7238,20 +7238,20 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A65" s="128" t="s">
-        <v>251</v>
-      </c>
-      <c r="B65" s="113">
+      <c r="A65" s="118" t="s">
+        <v>250</v>
+      </c>
+      <c r="B65" s="108">
         <v>1</v>
       </c>
-      <c r="C65" s="110" t="s">
+      <c r="C65" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="113" t="s">
+      <c r="D65" s="108" t="s">
         <v>92</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F65" s="18">
         <v>1</v>
@@ -7267,12 +7267,12 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A66" s="107"/>
-      <c r="B66" s="113"/>
-      <c r="C66" s="113"/>
-      <c r="D66" s="113"/>
+      <c r="A66" s="114"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="108"/>
       <c r="E66" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F66" s="19">
         <v>2</v>
@@ -7288,10 +7288,10 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="124"/>
-      <c r="B67" s="114"/>
-      <c r="C67" s="111"/>
-      <c r="D67" s="113"/>
+      <c r="A67" s="119"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="108"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
@@ -7299,16 +7299,16 @@
       <c r="I67" s="25"/>
     </row>
     <row r="68" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="118" t="s">
-        <v>252</v>
-      </c>
-      <c r="B68" s="112">
+      <c r="A68" s="116" t="s">
+        <v>251</v>
+      </c>
+      <c r="B68" s="107">
         <v>1</v>
       </c>
-      <c r="C68" s="125" t="s">
+      <c r="C68" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="D68" s="125" t="s">
+      <c r="D68" s="121" t="s">
         <v>92</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -7321,19 +7321,19 @@
         <v>13</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="119"/>
-      <c r="B69" s="113"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
+      <c r="A69" s="120"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="122"/>
+      <c r="D69" s="122"/>
       <c r="E69" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F69" s="16">
         <v>1</v>
@@ -7349,12 +7349,12 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="119"/>
-      <c r="B70" s="113"/>
-      <c r="C70" s="108"/>
-      <c r="D70" s="108"/>
+      <c r="A70" s="120"/>
+      <c r="B70" s="108"/>
+      <c r="C70" s="122"/>
+      <c r="D70" s="122"/>
       <c r="E70" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F70" s="16">
         <v>1</v>
@@ -7370,12 +7370,12 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A71" s="119"/>
-      <c r="B71" s="113"/>
-      <c r="C71" s="108"/>
-      <c r="D71" s="108"/>
+      <c r="A71" s="120"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="122"/>
+      <c r="D71" s="122"/>
       <c r="E71" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F71" s="16">
         <v>1</v>
@@ -7391,12 +7391,12 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="120"/>
-      <c r="B72" s="114"/>
-      <c r="C72" s="109"/>
-      <c r="D72" s="109"/>
+      <c r="A72" s="117"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="123"/>
+      <c r="D72" s="123"/>
       <c r="E72" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F72" s="5">
         <v>2</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="72" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>1</v>
@@ -7423,7 +7423,7 @@
         <v>93</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>6</v>
@@ -7439,16 +7439,16 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="116" t="s">
-        <v>253</v>
-      </c>
-      <c r="B74" s="112">
+      <c r="A74" s="113" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" s="107">
         <v>1</v>
       </c>
-      <c r="C74" s="126" t="s">
+      <c r="C74" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="D74" s="112" t="s">
+      <c r="D74" s="107" t="s">
         <v>95</v>
       </c>
       <c r="E74" s="85">
@@ -7468,10 +7468,10 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="107"/>
-      <c r="B75" s="113"/>
-      <c r="C75" s="115"/>
-      <c r="D75" s="113"/>
+      <c r="A75" s="114"/>
+      <c r="B75" s="108"/>
+      <c r="C75" s="111"/>
+      <c r="D75" s="108"/>
       <c r="E75" s="86">
         <v>2</v>
       </c>
@@ -7489,10 +7489,10 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="107"/>
-      <c r="B76" s="113"/>
-      <c r="C76" s="115"/>
-      <c r="D76" s="113"/>
+      <c r="A76" s="114"/>
+      <c r="B76" s="108"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="108"/>
       <c r="E76" s="95">
         <v>3</v>
       </c>
@@ -7503,17 +7503,17 @@
         <v>13</v>
       </c>
       <c r="H76" s="95" t="s">
+        <v>302</v>
+      </c>
+      <c r="I76" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="I76" s="21" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="77" spans="1:9" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="117"/>
-      <c r="B77" s="114"/>
-      <c r="C77" s="127"/>
-      <c r="D77" s="114"/>
+      <c r="A77" s="115"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="109"/>
       <c r="E77" s="96"/>
       <c r="F77" s="96"/>
       <c r="G77" s="96"/>
@@ -7544,15 +7544,49 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D20"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="A55:A61"/>
@@ -7569,49 +7603,15 @@
     <mergeCell ref="E55:E57"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="C43:C49"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="D10:D20"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -7630,7 +7630,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7651,57 +7651,57 @@
         <v>141</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D1" s="52" t="s">
         <v>142</v>
       </c>
       <c r="E1" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="53" t="s">
-        <v>192</v>
-      </c>
       <c r="G1" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="102" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="100" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" s="100" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="101" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="101" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="101" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" s="100" t="s">
-        <v>329</v>
-      </c>
-      <c r="E2" s="100" t="s">
+      <c r="G2" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="101" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="101" t="s">
+      <c r="H2" s="100" t="s">
+        <v>336</v>
+      </c>
+      <c r="I2" s="101" t="s">
         <v>334</v>
-      </c>
-      <c r="H2" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="I2" s="101" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7725,7 +7725,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I3" s="50"/>
     </row>
@@ -7750,13 +7750,13 @@
         <v>21</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B5" s="43">
         <v>3</v>
@@ -7775,13 +7775,13 @@
         <v>21</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42" t="s">
-        <v>146</v>
+        <v>338</v>
       </c>
       <c r="B6" s="43">
         <v>4</v>
@@ -7800,13 +7800,13 @@
         <v>21</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" s="43">
         <v>5</v>
@@ -7816,22 +7816,22 @@
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I7" s="50"/>
     </row>
     <row r="8" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="43">
         <v>6</v>
@@ -7850,13 +7850,13 @@
         <v>21</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="43">
         <v>7</v>
@@ -7872,16 +7872,16 @@
         <v>21</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10" s="43">
         <v>8</v>
@@ -7897,16 +7897,16 @@
         <v>21</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:9" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="43">
         <v>9</v>
@@ -7919,19 +7919,19 @@
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="42" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="43">
         <v>10</v>
@@ -7944,19 +7944,19 @@
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="42" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I12" s="50"/>
     </row>
     <row r="13" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="43">
         <v>11</v>
@@ -7969,19 +7969,19 @@
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="42" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="43">
         <v>12</v>
@@ -7994,13 +7994,13 @@
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H14" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I14" s="50"/>
     </row>
@@ -8017,21 +8017,21 @@
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
       <c r="F15" s="54" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I15" s="54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="43">
         <v>14</v>
@@ -8042,19 +8042,19 @@
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
       <c r="F16" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I16" s="50"/>
     </row>
     <row r="17" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="43">
         <v>15</v>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>21</v>
@@ -8073,13 +8073,13 @@
         <v>21</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="43">
         <v>16</v>
@@ -8090,19 +8090,19 @@
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
       <c r="F18" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H18" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="43">
         <v>17</v>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="43" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>21</v>
@@ -8121,13 +8121,13 @@
         <v>21</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="43">
         <v>18</v>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>21</v>
@@ -8146,13 +8146,13 @@
         <v>21</v>
       </c>
       <c r="H20" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" s="43">
         <v>19</v>
@@ -8163,19 +8163,19 @@
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" s="43">
         <v>20</v>
@@ -8189,16 +8189,16 @@
         <v>21</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I22" s="50"/>
     </row>
     <row r="23" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="43">
         <v>21</v>
@@ -8209,19 +8209,19 @@
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H23" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I23" s="50"/>
     </row>
     <row r="24" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="43">
         <v>22</v>
@@ -8232,19 +8232,19 @@
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
       <c r="F24" s="42" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I24" s="50"/>
     </row>
     <row r="25" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="43">
         <v>23</v>
@@ -8263,13 +8263,13 @@
         <v>21</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I25" s="50"/>
     </row>
     <row r="26" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" s="43">
         <v>24</v>
@@ -8280,19 +8280,19 @@
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I26" s="50"/>
     </row>
     <row r="27" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B27" s="43">
         <v>25</v>
@@ -8311,13 +8311,13 @@
         <v>21</v>
       </c>
       <c r="H27" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I27" s="50"/>
     </row>
     <row r="28" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="43">
         <v>26</v>
@@ -8334,13 +8334,13 @@
         <v>21</v>
       </c>
       <c r="H28" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I28" s="50"/>
     </row>
     <row r="29" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="43">
         <v>27</v>
@@ -8351,19 +8351,19 @@
       <c r="D29" s="43"/>
       <c r="E29" s="43"/>
       <c r="F29" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I29" s="50"/>
     </row>
     <row r="30" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="43">
         <v>28</v>
@@ -8382,13 +8382,13 @@
         <v>21</v>
       </c>
       <c r="H30" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I30" s="50"/>
     </row>
     <row r="31" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" s="43">
         <v>29</v>
@@ -8399,19 +8399,19 @@
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
       <c r="F31" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H31" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I31" s="50"/>
     </row>
     <row r="32" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="43">
         <v>30</v>
@@ -8422,19 +8422,19 @@
       <c r="D32" s="43"/>
       <c r="E32" s="43"/>
       <c r="F32" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H32" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I32" s="50"/>
     </row>
     <row r="33" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="43">
         <v>31</v>
@@ -8445,19 +8445,19 @@
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H33" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I33" s="50"/>
     </row>
     <row r="34" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B34" s="43">
         <v>32</v>
@@ -8476,13 +8476,13 @@
         <v>21</v>
       </c>
       <c r="H34" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I34" s="50"/>
     </row>
     <row r="35" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" s="43">
         <v>33</v>
@@ -8501,13 +8501,13 @@
         <v>21</v>
       </c>
       <c r="H35" s="49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I35" s="50"/>
     </row>
     <row r="36" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" s="43">
         <v>34</v>
@@ -8526,13 +8526,13 @@
         <v>21</v>
       </c>
       <c r="H36" s="49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I36" s="50"/>
     </row>
     <row r="37" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" s="43">
         <v>35</v>
@@ -8551,13 +8551,13 @@
         <v>21</v>
       </c>
       <c r="H37" s="49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I37" s="50"/>
     </row>
     <row r="38" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B38" s="43">
         <v>36</v>
@@ -8576,13 +8576,13 @@
         <v>21</v>
       </c>
       <c r="H38" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I38" s="50"/>
     </row>
     <row r="39" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="43">
         <v>37</v>
@@ -8601,13 +8601,13 @@
         <v>21</v>
       </c>
       <c r="H39" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I39" s="50"/>
     </row>
     <row r="40" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B40" s="43">
         <v>38</v>
@@ -8620,19 +8620,19 @@
       </c>
       <c r="E40" s="43"/>
       <c r="F40" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H40" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I40" s="50"/>
     </row>
     <row r="41" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B41" s="43">
         <v>39</v>
@@ -8645,19 +8645,19 @@
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I41" s="50"/>
     </row>
     <row r="42" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B42" s="43">
         <v>40</v>
@@ -8670,19 +8670,19 @@
       </c>
       <c r="E42" s="43"/>
       <c r="F42" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H42" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I42" s="50"/>
     </row>
     <row r="43" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43" s="43">
         <v>41</v>
@@ -8695,19 +8695,19 @@
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I43" s="50"/>
     </row>
     <row r="44" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B44" s="43">
         <v>42</v>
@@ -8720,19 +8720,19 @@
       </c>
       <c r="E44" s="43"/>
       <c r="F44" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I44" s="50"/>
     </row>
     <row r="45" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B45" s="43">
         <v>43</v>
@@ -8751,13 +8751,13 @@
         <v>21</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I45" s="50"/>
     </row>
     <row r="46" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B46" s="43">
         <v>44</v>
@@ -8776,13 +8776,13 @@
         <v>21</v>
       </c>
       <c r="H46" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I46" s="50"/>
     </row>
     <row r="47" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B47" s="43">
         <v>45</v>
@@ -8801,13 +8801,13 @@
         <v>21</v>
       </c>
       <c r="H47" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I47" s="50"/>
     </row>
     <row r="48" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B48" s="43">
         <v>46</v>
@@ -8826,13 +8826,13 @@
         <v>21</v>
       </c>
       <c r="H48" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I48" s="50"/>
     </row>
     <row r="49" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B49" s="43">
         <v>47</v>
@@ -8851,13 +8851,13 @@
         <v>21</v>
       </c>
       <c r="H49" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I49" s="50"/>
     </row>
     <row r="50" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B50" s="43">
         <v>48</v>
@@ -8870,19 +8870,19 @@
       </c>
       <c r="E50" s="43"/>
       <c r="F50" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="G50" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="G50" s="42" t="s">
-        <v>257</v>
-      </c>
       <c r="H50" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I50" s="50"/>
     </row>
     <row r="51" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B51" s="43">
         <v>49</v>
@@ -8895,19 +8895,19 @@
       </c>
       <c r="E51" s="43"/>
       <c r="F51" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H51" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I51" s="50"/>
     </row>
     <row r="52" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B52" s="43">
         <v>50</v>
@@ -8920,19 +8920,19 @@
       </c>
       <c r="E52" s="43"/>
       <c r="F52" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G52" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H52" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I52" s="50"/>
     </row>
     <row r="53" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B53" s="43">
         <v>51</v>
@@ -8945,19 +8945,19 @@
       </c>
       <c r="E53" s="43"/>
       <c r="F53" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G53" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H53" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I53" s="50"/>
     </row>
     <row r="54" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B54" s="43">
         <v>52</v>
@@ -8970,13 +8970,13 @@
       </c>
       <c r="E54" s="43"/>
       <c r="F54" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H54" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I54" s="50"/>
     </row>
